--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10696" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -338,10 +362,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -385,28 +409,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="3">
+      <c r="C9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -431,28 +455,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="3">
+      <c r="I11" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -627,10 +651,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -674,28 +698,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="3">
+      <c r="C19" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -720,28 +744,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="3">
+      <c r="I21" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -800,10 +824,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -847,28 +871,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="3">
+      <c r="A25" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="3">
+      <c r="C25" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="3">
+      <c r="F25" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="3">
+      <c r="G25" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="3">
+      <c r="H25" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -893,28 +917,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="D27" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="3">
+      <c r="I27" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1089,10 +1113,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="3" t="s">
+      <c r="J33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1136,28 +1160,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="3">
+      <c r="A35" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="3">
+      <c r="C35" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1182,28 +1206,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="3">
+      <c r="B37" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="3">
+      <c r="C37" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="3">
+      <c r="D37" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E37" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="3">
+      <c r="F37" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="3">
+      <c r="G37" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="3">
+      <c r="H37" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="3">
+      <c r="I37" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1262,10 +1286,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1309,28 +1333,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="3">
+      <c r="A41" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="3">
+      <c r="C41" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1355,28 +1379,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="3">
+      <c r="B43" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="3">
+      <c r="C43" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="3">
+      <c r="D43" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="3">
+      <c r="G43" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="3">
+      <c r="H43" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="3">
+      <c r="I43" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1435,10 +1459,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="3" t="s">
+      <c r="J45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1482,28 +1506,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="3">
+      <c r="A47" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="3">
+      <c r="C47" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1528,28 +1552,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="3">
+      <c r="B49" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="3">
+      <c r="C49" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="3">
+      <c r="D49" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="3">
+      <c r="F49" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="3">
+      <c r="G49" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="3">
+      <c r="H49" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="3">
+      <c r="I49" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1608,10 +1632,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="3" t="s">
+      <c r="J51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1655,28 +1679,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="A53" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="3">
+      <c r="C53" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1701,28 +1725,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="3">
+      <c r="I55" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1868,10 +1892,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="3" t="s">
+      <c r="J60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1915,28 +1939,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="3">
+      <c r="A62" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="3">
+      <c r="C62" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1961,28 +1985,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="3">
+      <c r="C64" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="3">
+      <c r="D64" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="3">
+      <c r="I64" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2041,10 +2065,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="3" t="s">
+      <c r="J66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2088,28 +2112,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="3">
+      <c r="A68" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="3">
+      <c r="C68" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2134,28 +2158,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="3">
+      <c r="C70" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="3">
+      <c r="D70" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="3">
+      <c r="I70" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2214,10 +2238,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="3" t="s">
+      <c r="J72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2261,28 +2285,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="3">
+      <c r="A74" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="3">
+      <c r="C74" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2307,28 +2331,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="3">
+      <c r="C76" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="3">
+      <c r="D76" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="3">
+      <c r="I76" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2387,10 +2411,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2434,28 +2458,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2480,28 +2504,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2560,10 +2584,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="3" t="s">
+      <c r="J84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2607,28 +2631,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="3">
+      <c r="A86" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="3">
+      <c r="B86" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="3">
+      <c r="C86" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="3">
+      <c r="E86" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="3">
+      <c r="F86" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="3">
+      <c r="G86" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="3">
+      <c r="H86" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2653,28 +2677,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="3">
+      <c r="B88" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="3">
+      <c r="C88" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="3">
+      <c r="D88" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="3">
+      <c r="F88" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="3">
+      <c r="G88" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="3">
+      <c r="H88" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="3">
+      <c r="I88" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2733,10 +2757,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="J90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2780,28 +2804,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="3">
+      <c r="C92" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2826,28 +2850,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="3">
+      <c r="I94" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2906,10 +2930,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="3" t="s">
+      <c r="J96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2953,28 +2977,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="3">
+      <c r="A98" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="3">
+      <c r="B98" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="3">
+      <c r="C98" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="3">
+      <c r="F98" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="3">
+      <c r="G98" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="3">
+      <c r="H98" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2999,28 +3023,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="3">
+      <c r="C100" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="3">
+      <c r="D100" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="3">
+      <c r="I100" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3079,10 +3103,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="J102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3126,28 +3150,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="3">
+      <c r="A104" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="3">
+      <c r="C104" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3172,28 +3196,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="3">
+      <c r="C106" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="3">
+      <c r="D106" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="3">
+      <c r="I106" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3252,10 +3276,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="3" t="s">
+      <c r="J108" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3299,28 +3323,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="3">
+      <c r="A110" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="3">
+      <c r="B110" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="3">
+      <c r="C110" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="3">
+      <c r="E110" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="3">
+      <c r="F110" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="3">
+      <c r="G110" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="3">
+      <c r="H110" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3369,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="3">
+      <c r="C112" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="3">
+      <c r="D112" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="3">
+      <c r="I112" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3425,10 +3449,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="3" t="s">
+      <c r="J114" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3472,28 +3496,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="3">
+      <c r="A116" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="3">
+      <c r="C116" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3518,28 +3542,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="3">
+      <c r="C118" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="3">
+      <c r="D118" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="3">
+      <c r="I118" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3598,10 +3622,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="3" t="s">
+      <c r="J120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3645,28 +3669,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="A122" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="3">
+      <c r="C122" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3691,28 +3715,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="3">
+      <c r="I124" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3771,10 +3795,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="3" t="s">
+      <c r="J126" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3818,28 +3842,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="3">
+      <c r="A128" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="3">
+      <c r="B128" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="3">
+      <c r="C128" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="3">
+      <c r="F128" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="3">
+      <c r="G128" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="3">
+      <c r="H128" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3864,28 +3888,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="3">
+      <c r="C130" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="3">
+      <c r="D130" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="3">
+      <c r="I130" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3944,10 +3968,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="3" t="s">
+      <c r="J132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3991,28 +4015,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="3">
+      <c r="A134" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="3">
+      <c r="B134" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="3">
+      <c r="C134" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="3">
+      <c r="F134" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="3">
+      <c r="G134" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="3">
+      <c r="H134" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4037,28 +4061,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="3">
+      <c r="C136" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="3">
+      <c r="D136" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="3">
+      <c r="I136" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4117,10 +4141,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="3" t="s">
+      <c r="J138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4164,28 +4188,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="3">
+      <c r="A140" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="3">
+      <c r="B140" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="3">
+      <c r="C140" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="3">
+      <c r="F140" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="3">
+      <c r="G140" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="3">
+      <c r="H140" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4210,28 +4234,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="3">
+      <c r="C142" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="3">
+      <c r="D142" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="3">
+      <c r="I142" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4290,10 +4314,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="J144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4337,28 +4361,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="3">
+      <c r="C146" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4383,28 +4407,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4463,10 +4487,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="3" t="s">
+      <c r="J150" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4510,28 +4534,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="3">
+      <c r="A152" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="3">
+      <c r="C152" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4556,28 +4580,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="3">
+      <c r="C154" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="3">
+      <c r="D154" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="3">
+      <c r="I154" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4636,10 +4660,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="3" t="s">
+      <c r="J156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4683,28 +4707,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="3">
+      <c r="A158" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="3">
+      <c r="B158" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="3">
+      <c r="C158" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="3">
+      <c r="E158" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="3">
+      <c r="F158" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="3">
+      <c r="G158" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="3">
+      <c r="H158" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4729,28 +4753,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="3">
+      <c r="C160" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="3">
+      <c r="D160" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="3">
+      <c r="I160" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4809,10 +4833,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="3" t="s">
+      <c r="J162" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4856,28 +4880,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="3">
+      <c r="A164" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="3">
+      <c r="C164" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4902,28 +4926,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="3">
+      <c r="C166" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="3">
+      <c r="D166" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="3">
+      <c r="I166" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4982,10 +5006,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="3" t="s">
+      <c r="J168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5029,28 +5053,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="3">
+      <c r="A170" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="3">
+      <c r="C170" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5075,28 +5099,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="3">
+      <c r="B172" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="3">
+      <c r="C172" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="3">
+      <c r="D172" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="3">
+      <c r="E172" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="3">
+      <c r="F172" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="3">
+      <c r="G172" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="3">
+      <c r="H172" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="3">
+      <c r="I172" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5155,10 +5179,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="3" t="s">
+      <c r="J174" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5202,28 +5226,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="3">
+      <c r="A176" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="3">
+      <c r="B176" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="3">
+      <c r="C176" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="3">
+      <c r="E176" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="3">
+      <c r="F176" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="3">
+      <c r="G176" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="3">
+      <c r="H176" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5248,28 +5272,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="3">
+      <c r="C178" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="3">
+      <c r="D178" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="3">
+      <c r="I178" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5328,10 +5352,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="3" t="s">
+      <c r="J180" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5375,28 +5399,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="3">
+      <c r="A182" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="3">
+      <c r="B182" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="3">
+      <c r="C182" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="3">
+      <c r="E182" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="3">
+      <c r="F182" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="3">
+      <c r="G182" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="3">
+      <c r="H182" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5421,28 +5445,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="3">
+      <c r="B184" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="3">
+      <c r="C184" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="3">
+      <c r="D184" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="3">
+      <c r="E184" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="3">
+      <c r="F184" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="3">
+      <c r="G184" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="3">
+      <c r="H184" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="3">
+      <c r="I184" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5501,10 +5525,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="3" t="s">
+      <c r="J186" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5548,28 +5572,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="3">
+      <c r="A188" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="3">
+      <c r="B188" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="3">
+      <c r="C188" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="3">
+      <c r="E188" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="3">
+      <c r="F188" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="3">
+      <c r="G188" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="3">
+      <c r="H188" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5594,28 +5618,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="3">
+      <c r="B190" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="3">
+      <c r="C190" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="3">
+      <c r="D190" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="3">
+      <c r="E190" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="3">
+      <c r="F190" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="3">
+      <c r="G190" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="3">
+      <c r="H190" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="3">
+      <c r="I190" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5698,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="3" t="s">
+      <c r="J192" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5721,28 +5745,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="3">
+      <c r="A194" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="3">
+      <c r="C194" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5791,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="3">
+      <c r="B196" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="3">
+      <c r="C196" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="3">
+      <c r="D196" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="3">
+      <c r="E196" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="3">
+      <c r="F196" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="3">
+      <c r="G196" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="3">
+      <c r="H196" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="3">
+      <c r="I196" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5847,10 +5871,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="3" t="s">
+      <c r="J198" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5894,28 +5918,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="3">
+      <c r="A200" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="3">
+      <c r="C200" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5940,28 +5964,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="3">
+      <c r="C202" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="3">
+      <c r="D202" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="3">
+      <c r="I202" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6136,10 +6160,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="3" t="s">
+      <c r="J208" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6183,28 +6207,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="3">
+      <c r="A210" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="3">
+      <c r="B210" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="3">
+      <c r="C210" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="3">
+      <c r="E210" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="3">
+      <c r="F210" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="3">
+      <c r="G210" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="3">
+      <c r="H210" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6229,28 +6253,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="3">
+      <c r="B212" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="3">
+      <c r="C212" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="3">
+      <c r="D212" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="3">
+      <c r="E212" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="3">
+      <c r="F212" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="3">
+      <c r="G212" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="3">
+      <c r="H212" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="3">
+      <c r="I212" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6309,10 +6333,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="3" t="s">
+      <c r="J214" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6356,28 +6380,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="3">
+      <c r="A216" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="3">
+      <c r="C216" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6402,28 +6426,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="3">
+      <c r="B218" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="3">
+      <c r="C218" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="3">
+      <c r="D218" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="3">
+      <c r="E218" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="F218" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="3">
+      <c r="G218" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="3">
+      <c r="H218" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="3">
+      <c r="I218" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6482,10 +6506,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="3" t="s">
+      <c r="J220" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6529,28 +6553,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="3">
+      <c r="A222" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="3">
+      <c r="B222" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="3">
+      <c r="C222" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="3">
+      <c r="E222" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="F222" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="G222" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="3">
+      <c r="H222" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6575,28 +6599,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="3">
+      <c r="B224" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="3">
+      <c r="C224" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="3">
+      <c r="D224" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="3">
+      <c r="E224" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="3">
+      <c r="F224" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="3">
+      <c r="G224" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="3">
+      <c r="H224" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="3">
+      <c r="I224" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6655,10 +6679,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="3" t="s">
+      <c r="J226" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6702,28 +6726,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="3">
+      <c r="A228" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="3">
+      <c r="B228" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="3">
+      <c r="C228" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="3">
+      <c r="E228" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="3">
+      <c r="F228" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="3">
+      <c r="G228" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="3">
+      <c r="H228" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6748,28 +6772,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="3">
+      <c r="C230" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="3">
+      <c r="D230" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="3">
+      <c r="I230" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6828,10 +6852,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="3" t="s">
+      <c r="J232" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6875,28 +6899,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="3">
+      <c r="A234" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="3">
+      <c r="B234" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="3">
+      <c r="C234" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="3">
+      <c r="E234" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="3">
+      <c r="F234" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="3">
+      <c r="G234" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="3">
+      <c r="H234" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6921,28 +6945,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="3">
+      <c r="C236" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="3">
+      <c r="D236" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="3">
+      <c r="I236" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7001,10 +7025,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="3" t="s">
+      <c r="J238" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7048,28 +7072,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="3">
+      <c r="A240" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="3">
+      <c r="B240" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="3">
+      <c r="C240" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="3">
+      <c r="E240" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="3">
+      <c r="F240" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="3">
+      <c r="G240" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="3">
+      <c r="H240" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7094,28 +7118,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="3">
+      <c r="C242" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="3">
+      <c r="D242" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="3">
+      <c r="I242" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7174,10 +7198,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="3" t="s">
+      <c r="J244" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7221,28 +7245,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="3">
+      <c r="A246" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="3">
+      <c r="B246" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="3">
+      <c r="C246" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="3">
+      <c r="E246" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="3">
+      <c r="F246" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="3">
+      <c r="G246" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="3">
+      <c r="H246" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7267,28 +7291,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="3">
+      <c r="B248" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="3">
+      <c r="C248" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="3">
+      <c r="D248" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="3">
+      <c r="E248" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="3">
+      <c r="F248" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="3">
+      <c r="G248" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="3">
+      <c r="H248" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="3">
+      <c r="I248" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7347,10 +7371,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="3" t="s">
+      <c r="J250" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7394,28 +7418,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="3">
+      <c r="A252" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="3">
+      <c r="B252" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="3">
+      <c r="C252" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="3">
+      <c r="E252" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="3">
+      <c r="F252" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="3">
+      <c r="G252" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="3">
+      <c r="H252" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7440,28 +7464,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="3">
+      <c r="B254" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="3">
+      <c r="C254" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="3">
+      <c r="D254" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="3">
+      <c r="E254" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="3">
+      <c r="F254" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="3">
+      <c r="G254" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="3">
+      <c r="H254" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="3">
+      <c r="I254" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7520,10 +7544,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="3" t="s">
+      <c r="J256" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7567,28 +7591,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="3">
+      <c r="A258" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="3">
+      <c r="B258" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="3">
+      <c r="C258" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="3">
+      <c r="E258" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="3">
+      <c r="F258" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="3">
+      <c r="G258" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="3">
+      <c r="H258" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7613,28 +7637,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="3">
+      <c r="B260" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="3">
+      <c r="C260" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="3">
+      <c r="D260" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="3">
+      <c r="E260" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="3">
+      <c r="F260" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="3">
+      <c r="G260" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="3">
+      <c r="H260" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="3">
+      <c r="I260" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7693,10 +7717,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="3" t="s">
+      <c r="J262" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7740,28 +7764,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="3">
+      <c r="A264" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="3">
+      <c r="B264" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="3">
+      <c r="C264" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="3">
+      <c r="E264" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="3">
+      <c r="F264" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="3">
+      <c r="G264" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="3">
+      <c r="H264" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7786,28 +7810,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="3">
+      <c r="B266" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="3">
+      <c r="C266" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="3">
+      <c r="D266" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="3">
+      <c r="E266" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="3">
+      <c r="F266" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="3">
+      <c r="G266" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="3">
+      <c r="H266" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="3">
+      <c r="I266" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7866,10 +7890,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="3" t="s">
+      <c r="J268" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7913,28 +7937,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="3">
+      <c r="A270" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="3">
+      <c r="B270" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="3">
+      <c r="C270" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="3">
+      <c r="E270" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="3">
+      <c r="F270" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="3">
+      <c r="G270" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="3">
+      <c r="H270" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7959,28 +7983,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="3">
+      <c r="B272" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="3">
+      <c r="C272" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="3">
+      <c r="D272" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="3">
+      <c r="E272" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="3">
+      <c r="F272" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="3">
+      <c r="G272" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="3">
+      <c r="H272" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="3">
+      <c r="I272" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8039,10 +8063,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="3" t="s">
+      <c r="J274" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8086,28 +8110,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="3">
+      <c r="A276" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="3">
+      <c r="B276" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="3">
+      <c r="C276" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="3">
+      <c r="E276" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="3">
+      <c r="F276" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="3">
+      <c r="G276" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="3">
+      <c r="H276" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8132,28 +8156,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="3">
+      <c r="B278" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="3">
+      <c r="C278" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="3">
+      <c r="D278" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="3">
+      <c r="E278" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="3">
+      <c r="F278" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="3">
+      <c r="G278" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="3">
+      <c r="H278" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="3">
+      <c r="I278" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8212,10 +8236,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="3" t="s">
+      <c r="J280" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8259,28 +8283,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="3">
+      <c r="A282" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="3">
+      <c r="B282" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="3">
+      <c r="C282" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="3">
+      <c r="E282" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="3">
+      <c r="F282" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="3">
+      <c r="G282" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="3">
+      <c r="H282" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8305,28 +8329,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="3">
+      <c r="B284" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="3">
+      <c r="C284" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="3">
+      <c r="D284" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="3">
+      <c r="E284" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="3">
+      <c r="F284" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="3">
+      <c r="G284" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="3">
+      <c r="H284" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="3">
+      <c r="I284" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8385,10 +8409,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="3" t="s">
+      <c r="J286" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8432,28 +8456,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="3">
+      <c r="A288" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="3">
+      <c r="B288" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="3">
+      <c r="C288" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="3">
+      <c r="E288" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="3">
+      <c r="F288" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="3">
+      <c r="G288" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="3">
+      <c r="H288" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8478,28 +8502,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="3">
+      <c r="B290" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="3">
+      <c r="C290" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="3">
+      <c r="D290" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="3">
+      <c r="E290" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="3">
+      <c r="F290" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="3">
+      <c r="G290" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="3">
+      <c r="H290" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="3">
+      <c r="I290" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8558,10 +8582,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="3" t="s">
+      <c r="J292" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8605,28 +8629,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="3">
+      <c r="A294" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="3">
+      <c r="B294" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="3">
+      <c r="C294" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="3">
+      <c r="E294" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="3">
+      <c r="F294" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="3">
+      <c r="G294" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="3">
+      <c r="H294" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8651,28 +8675,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="3">
+      <c r="B296" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="3">
+      <c r="C296" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="3">
+      <c r="D296" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="3">
+      <c r="E296" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="3">
+      <c r="F296" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="3">
+      <c r="G296" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="3">
+      <c r="H296" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="3">
+      <c r="I296" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8731,10 +8755,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="3" t="s">
+      <c r="J298" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8778,28 +8802,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="3">
+      <c r="A300" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="3">
+      <c r="B300" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="3">
+      <c r="C300" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="3">
+      <c r="E300" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="3">
+      <c r="F300" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="3">
+      <c r="G300" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="3">
+      <c r="H300" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8824,28 +8848,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="3">
+      <c r="B302" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="3">
+      <c r="C302" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="3">
+      <c r="D302" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="3">
+      <c r="E302" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="3">
+      <c r="F302" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="3">
+      <c r="G302" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="3">
+      <c r="H302" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="3">
+      <c r="I302" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8904,10 +8928,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="3" t="s">
+      <c r="J304" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8951,28 +8975,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="3">
+      <c r="A306" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="3">
+      <c r="B306" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="3">
+      <c r="C306" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="3">
+      <c r="E306" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="3">
+      <c r="F306" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="3">
+      <c r="G306" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="3">
+      <c r="H306" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8997,28 +9021,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="3">
+      <c r="B308" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="3">
+      <c r="C308" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="3">
+      <c r="D308" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="3">
+      <c r="E308" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="3">
+      <c r="F308" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="3">
+      <c r="G308" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="3">
+      <c r="H308" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="3">
+      <c r="I308" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9077,10 +9101,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="3" t="s">
+      <c r="J310" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9124,28 +9148,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="3">
+      <c r="A312" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="3">
+      <c r="B312" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="3">
+      <c r="C312" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="3">
+      <c r="E312" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="3">
+      <c r="F312" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="3">
+      <c r="G312" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="3">
+      <c r="H312" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9170,28 +9194,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="3">
+      <c r="B314" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="3">
+      <c r="C314" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="3">
+      <c r="D314" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="3">
+      <c r="E314" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="3">
+      <c r="F314" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="3">
+      <c r="G314" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="3">
+      <c r="H314" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="3">
+      <c r="I314" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9250,10 +9274,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="3" t="s">
+      <c r="J316" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9297,28 +9321,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="3">
+      <c r="A318" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="3">
+      <c r="B318" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="3">
+      <c r="C318" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="3">
+      <c r="E318" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="3">
+      <c r="F318" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="3">
+      <c r="G318" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="3">
+      <c r="H318" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9343,28 +9367,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="3">
+      <c r="B320" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="3">
+      <c r="C320" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="3">
+      <c r="D320" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="3">
+      <c r="E320" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="3">
+      <c r="F320" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="3">
+      <c r="G320" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="3">
+      <c r="H320" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="3">
+      <c r="I320" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9423,10 +9447,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="3" t="s">
+      <c r="J322" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9470,28 +9494,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="3">
+      <c r="A324" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="3">
+      <c r="B324" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="3">
+      <c r="C324" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="3">
+      <c r="E324" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="3">
+      <c r="F324" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="3">
+      <c r="G324" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="3">
+      <c r="H324" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9516,28 +9540,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="3">
+      <c r="B326" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="3">
+      <c r="C326" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="3">
+      <c r="D326" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="3">
+      <c r="E326" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="3">
+      <c r="F326" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="3">
+      <c r="G326" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="3">
+      <c r="H326" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="3">
+      <c r="I326" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9596,10 +9620,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="3" t="s">
+      <c r="J328" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9643,28 +9667,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="3">
+      <c r="A330" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="3">
+      <c r="B330" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="3">
+      <c r="C330" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="3">
+      <c r="E330" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="3">
+      <c r="F330" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="3">
+      <c r="G330" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="3">
+      <c r="H330" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9689,28 +9713,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="3">
+      <c r="B332" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="3">
+      <c r="C332" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="3">
+      <c r="D332" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="3">
+      <c r="E332" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="3">
+      <c r="F332" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="3">
+      <c r="G332" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="3">
+      <c r="H332" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="3">
+      <c r="I332" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9769,10 +9793,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="3" t="s">
+      <c r="J334" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9816,28 +9840,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="3">
+      <c r="A336" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="3">
+      <c r="B336" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="3">
+      <c r="C336" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="3">
+      <c r="E336" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="3">
+      <c r="F336" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="3">
+      <c r="G336" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="3">
+      <c r="H336" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9862,28 +9886,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="3">
+      <c r="B338" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="3">
+      <c r="C338" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="3">
+      <c r="D338" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="3">
+      <c r="E338" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="3">
+      <c r="F338" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="3">
+      <c r="G338" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="3">
+      <c r="H338" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="3">
+      <c r="I338" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9942,10 +9966,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="3" t="s">
+      <c r="J340" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9989,28 +10013,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="3">
+      <c r="A342" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="3">
+      <c r="B342" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="3">
+      <c r="C342" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="3">
+      <c r="E342" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="3">
+      <c r="F342" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="3">
+      <c r="G342" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="3">
+      <c r="H342" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10035,28 +10059,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="3">
+      <c r="B344" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="3">
+      <c r="C344" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="3">
+      <c r="D344" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="3">
+      <c r="E344" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="3">
+      <c r="F344" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="3">
+      <c r="G344" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="3">
+      <c r="H344" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="3">
+      <c r="I344" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10115,10 +10139,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="3" t="s">
+      <c r="J346" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10162,28 +10186,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="3">
+      <c r="A348" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="3">
+      <c r="B348" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="3">
+      <c r="C348" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="3">
+      <c r="E348" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="3">
+      <c r="F348" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="3">
+      <c r="G348" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="3">
+      <c r="H348" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10208,28 +10232,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="3">
+      <c r="B350" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="3">
+      <c r="C350" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="3">
+      <c r="D350" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="3">
+      <c r="E350" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="3">
+      <c r="F350" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="3">
+      <c r="G350" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="3">
+      <c r="H350" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="3">
+      <c r="I350" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10288,10 +10312,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="3" t="s">
+      <c r="J352" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10335,28 +10359,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="3">
+      <c r="A354" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="3">
+      <c r="B354" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="3">
+      <c r="C354" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="3">
+      <c r="E354" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="3">
+      <c r="F354" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="3">
+      <c r="G354" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="3">
+      <c r="H354" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10381,28 +10405,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="3">
+      <c r="B356" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="3">
+      <c r="C356" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="3">
+      <c r="D356" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="3">
+      <c r="E356" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="3">
+      <c r="F356" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="3">
+      <c r="G356" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="3">
+      <c r="H356" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="3">
+      <c r="I356" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10461,10 +10485,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="3" t="s">
+      <c r="J358" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10508,28 +10532,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="3">
+      <c r="A360" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="3">
+      <c r="B360" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="3">
+      <c r="C360" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="3">
+      <c r="E360" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="3">
+      <c r="F360" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="3">
+      <c r="G360" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="3">
+      <c r="H360" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10554,28 +10578,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="3">
+      <c r="B362" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="3">
+      <c r="C362" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="3">
+      <c r="D362" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="3">
+      <c r="E362" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="3">
+      <c r="F362" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="3">
+      <c r="G362" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="3">
+      <c r="H362" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="3">
+      <c r="I362" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10634,10 +10658,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="3" t="s">
+      <c r="J364" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10681,28 +10705,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="3">
+      <c r="A366" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="3">
+      <c r="B366" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="3">
+      <c r="C366" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="3">
+      <c r="E366" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="3">
+      <c r="F366" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="3">
+      <c r="G366" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="3">
+      <c r="H366" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10727,28 +10751,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="3">
+      <c r="B368" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="3">
+      <c r="C368" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="3">
+      <c r="D368" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="3">
+      <c r="E368" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="3">
+      <c r="F368" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="3">
+      <c r="G368" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="3">
+      <c r="H368" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="3">
+      <c r="I368" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10807,10 +10831,10 @@
       <c r="I370">
         <f>((C370-C369)^2+(D370- D369)^2)^.5</f>
       </c>
-      <c r="J370" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K370" s="3" t="s">
+      <c r="J370" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K370" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L370" t="n">
@@ -10854,28 +10878,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="3">
+      <c r="A372" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B372" t="s" s="3">
+      <c r="B372" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C372" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s" s="3">
+      <c r="C372" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E372" t="s" s="3">
+      <c r="E372" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F372" t="s" s="3">
+      <c r="F372" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G372" t="s" s="3">
+      <c r="G372" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H372" t="s" s="3">
+      <c r="H372" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10900,28 +10924,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="3">
+      <c r="B374" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C374" t="s" s="3">
+      <c r="C374" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D374" t="s" s="3">
+      <c r="D374" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E374" t="s" s="3">
+      <c r="E374" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F374" t="s" s="3">
+      <c r="F374" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G374" t="s" s="3">
+      <c r="G374" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H374" t="s" s="3">
+      <c r="H374" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I374" t="s" s="3">
+      <c r="I374" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10980,10 +11004,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="3" t="s">
+      <c r="J376" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
@@ -11027,28 +11051,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="3">
+      <c r="A378" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B378" t="s" s="3">
+      <c r="B378" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C378" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D378" t="s" s="3">
+      <c r="C378" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E378" t="s" s="3">
+      <c r="E378" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F378" t="s" s="3">
+      <c r="F378" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G378" t="s" s="3">
+      <c r="G378" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H378" t="s" s="3">
+      <c r="H378" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11073,28 +11097,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="s" s="3">
+      <c r="B380" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C380" t="s" s="3">
+      <c r="C380" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D380" t="s" s="3">
+      <c r="D380" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E380" t="s" s="3">
+      <c r="E380" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F380" t="s" s="3">
+      <c r="F380" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G380" t="s" s="3">
+      <c r="G380" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H380" t="s" s="3">
+      <c r="H380" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I380" t="s" s="3">
+      <c r="I380" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11153,10 +11177,10 @@
       <c r="I382">
         <f>((C382-C381)^2+(D382- D381)^2)^.5</f>
       </c>
-      <c r="J382" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K382" s="3" t="s">
+      <c r="J382" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K382" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L382" t="n">
@@ -11200,28 +11224,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="s" s="3">
+      <c r="A384" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B384" t="s" s="3">
+      <c r="B384" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C384" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D384" t="s" s="3">
+      <c r="C384" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E384" t="s" s="3">
+      <c r="E384" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F384" t="s" s="3">
+      <c r="F384" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G384" t="s" s="3">
+      <c r="G384" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H384" t="s" s="3">
+      <c r="H384" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11246,28 +11270,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="B386" t="s" s="3">
+      <c r="B386" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C386" t="s" s="3">
+      <c r="C386" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D386" t="s" s="3">
+      <c r="D386" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E386" t="s" s="3">
+      <c r="E386" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F386" t="s" s="3">
+      <c r="F386" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G386" t="s" s="3">
+      <c r="G386" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H386" t="s" s="3">
+      <c r="H386" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I386" t="s" s="3">
+      <c r="I386" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11326,10 +11350,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="3" t="s">
+      <c r="J388" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11373,28 +11397,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="3">
+      <c r="A390" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="3">
+      <c r="B390" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="3">
+      <c r="C390" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="3">
+      <c r="E390" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="3">
+      <c r="F390" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="3">
+      <c r="G390" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="3">
+      <c r="H390" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11419,28 +11443,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="3">
+      <c r="B392" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="3">
+      <c r="C392" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="3">
+      <c r="D392" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="3">
+      <c r="E392" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="3">
+      <c r="F392" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="3">
+      <c r="G392" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="3">
+      <c r="H392" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="3">
+      <c r="I392" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11499,10 +11523,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="3" t="s">
+      <c r="J394" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11546,28 +11570,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="3">
+      <c r="A396" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="3">
+      <c r="B396" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="3">
+      <c r="C396" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="3">
+      <c r="E396" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="3">
+      <c r="F396" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="3">
+      <c r="G396" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="3">
+      <c r="H396" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11592,28 +11616,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="3">
+      <c r="B398" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="3">
+      <c r="C398" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="3">
+      <c r="D398" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="3">
+      <c r="E398" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="3">
+      <c r="F398" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="3">
+      <c r="G398" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="3">
+      <c r="H398" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="3">
+      <c r="I398" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11672,10 +11696,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="3" t="s">
+      <c r="J400" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11719,28 +11743,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="3">
+      <c r="A402" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="3">
+      <c r="B402" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="3">
+      <c r="C402" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="3">
+      <c r="E402" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="3">
+      <c r="F402" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="3">
+      <c r="G402" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="3">
+      <c r="H402" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11765,28 +11789,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="3">
+      <c r="B404" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="3">
+      <c r="C404" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="3">
+      <c r="D404" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="3">
+      <c r="E404" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="3">
+      <c r="F404" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="3">
+      <c r="G404" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="3">
+      <c r="H404" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="3">
+      <c r="I404" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11845,10 +11869,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="3" t="s">
+      <c r="J406" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11892,28 +11916,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="3">
+      <c r="A408" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="3">
+      <c r="B408" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="3">
+      <c r="C408" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="3">
+      <c r="E408" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="3">
+      <c r="F408" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="3">
+      <c r="G408" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="3">
+      <c r="H408" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11938,28 +11962,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="3">
+      <c r="B410" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="3">
+      <c r="C410" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="3">
+      <c r="D410" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="3">
+      <c r="E410" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="3">
+      <c r="F410" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="3">
+      <c r="G410" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="3">
+      <c r="H410" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="3">
+      <c r="I410" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12018,10 +12042,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="3" t="s">
+      <c r="J412" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12065,28 +12089,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="3">
+      <c r="A414" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="3">
+      <c r="B414" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="3">
+      <c r="C414" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="3">
+      <c r="E414" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="3">
+      <c r="F414" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="3">
+      <c r="G414" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="3">
+      <c r="H414" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12111,28 +12135,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="3">
+      <c r="B416" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="3">
+      <c r="C416" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="3">
+      <c r="D416" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="3">
+      <c r="E416" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="3">
+      <c r="F416" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="3">
+      <c r="G416" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="3">
+      <c r="H416" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="3">
+      <c r="I416" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12191,10 +12215,10 @@
       <c r="I418">
         <f>((C418-C417)^2+(D418- D417)^2)^.5</f>
       </c>
-      <c r="J418" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K418" s="3" t="s">
+      <c r="J418" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K418" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L418" t="n">
@@ -12238,28 +12262,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="s" s="3">
+      <c r="A420" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B420" t="s" s="3">
+      <c r="B420" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C420" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D420" t="s" s="3">
+      <c r="C420" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E420" t="s" s="3">
+      <c r="E420" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F420" t="s" s="3">
+      <c r="F420" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G420" t="s" s="3">
+      <c r="G420" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H420" t="s" s="3">
+      <c r="H420" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12284,28 +12308,28 @@
       </c>
     </row>
     <row r="422">
-      <c r="B422" t="s" s="3">
+      <c r="B422" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C422" t="s" s="3">
+      <c r="C422" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D422" t="s" s="3">
+      <c r="D422" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E422" t="s" s="3">
+      <c r="E422" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F422" t="s" s="3">
+      <c r="F422" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G422" t="s" s="3">
+      <c r="G422" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H422" t="s" s="3">
+      <c r="H422" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I422" t="s" s="3">
+      <c r="I422" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12364,10 +12388,10 @@
       <c r="I424">
         <f>((C424-C423)^2+(D424- D423)^2)^.5</f>
       </c>
-      <c r="J424" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K424" s="3" t="s">
+      <c r="J424" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K424" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L424" t="n">
@@ -12411,28 +12435,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="s" s="3">
+      <c r="A426" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B426" t="s" s="3">
+      <c r="B426" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C426" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D426" t="s" s="3">
+      <c r="C426" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E426" t="s" s="3">
+      <c r="E426" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F426" t="s" s="3">
+      <c r="F426" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G426" t="s" s="3">
+      <c r="G426" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H426" t="s" s="3">
+      <c r="H426" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12457,28 +12481,28 @@
       </c>
     </row>
     <row r="428">
-      <c r="B428" t="s" s="3">
+      <c r="B428" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C428" t="s" s="3">
+      <c r="C428" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D428" t="s" s="3">
+      <c r="D428" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E428" t="s" s="3">
+      <c r="E428" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F428" t="s" s="3">
+      <c r="F428" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G428" t="s" s="3">
+      <c r="G428" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H428" t="s" s="3">
+      <c r="H428" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I428" t="s" s="3">
+      <c r="I428" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12537,10 +12561,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="3" t="s">
+      <c r="J430" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12584,28 +12608,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="3">
+      <c r="A432" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="3">
+      <c r="B432" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="3">
+      <c r="C432" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="3">
+      <c r="E432" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="3">
+      <c r="F432" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="3">
+      <c r="G432" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="3">
+      <c r="H432" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12630,28 +12654,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="3">
+      <c r="B434" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="3">
+      <c r="C434" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="3">
+      <c r="D434" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="3">
+      <c r="E434" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="3">
+      <c r="F434" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="3">
+      <c r="G434" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="3">
+      <c r="H434" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="3">
+      <c r="I434" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12710,10 +12734,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="3" t="s">
+      <c r="J436" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">
@@ -12757,28 +12781,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="s" s="3">
+      <c r="A438" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B438" t="s" s="3">
+      <c r="B438" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C438" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D438" t="s" s="3">
+      <c r="C438" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D438" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E438" t="s" s="3">
+      <c r="E438" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F438" t="s" s="3">
+      <c r="F438" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G438" t="s" s="3">
+      <c r="G438" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H438" t="s" s="3">
+      <c r="H438" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12803,28 +12827,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="B440" t="s" s="3">
+      <c r="B440" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C440" t="s" s="3">
+      <c r="C440" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D440" t="s" s="3">
+      <c r="D440" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E440" t="s" s="3">
+      <c r="E440" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F440" t="s" s="3">
+      <c r="F440" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G440" t="s" s="3">
+      <c r="G440" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H440" t="s" s="3">
+      <c r="H440" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I440" t="s" s="3">
+      <c r="I440" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12883,10 +12907,10 @@
       <c r="I442">
         <f>((C442-C441)^2+(D442- D441)^2)^.5</f>
       </c>
-      <c r="J442" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K442" s="3" t="s">
+      <c r="J442" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K442" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L442" t="n">
@@ -12930,28 +12954,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="s" s="3">
+      <c r="A444" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B444" t="s" s="3">
+      <c r="B444" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C444" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D444" t="s" s="3">
+      <c r="C444" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D444" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E444" t="s" s="3">
+      <c r="E444" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F444" t="s" s="3">
+      <c r="F444" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G444" t="s" s="3">
+      <c r="G444" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H444" t="s" s="3">
+      <c r="H444" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12976,28 +13000,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="B446" t="s" s="3">
+      <c r="B446" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C446" t="s" s="3">
+      <c r="C446" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D446" t="s" s="3">
+      <c r="D446" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E446" t="s" s="3">
+      <c r="E446" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F446" t="s" s="3">
+      <c r="F446" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G446" t="s" s="3">
+      <c r="G446" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H446" t="s" s="3">
+      <c r="H446" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I446" t="s" s="3">
+      <c r="I446" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13056,10 +13080,10 @@
       <c r="I448">
         <f>((C448-C447)^2+(D448- D447)^2)^.5</f>
       </c>
-      <c r="J448" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K448" s="3" t="s">
+      <c r="J448" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K448" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L448" t="n">
@@ -13103,28 +13127,28 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="s" s="3">
+      <c r="A450" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B450" t="s" s="3">
+      <c r="B450" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C450" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D450" t="s" s="3">
+      <c r="C450" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D450" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E450" t="s" s="3">
+      <c r="E450" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F450" t="s" s="3">
+      <c r="F450" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G450" t="s" s="3">
+      <c r="G450" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H450" t="s" s="3">
+      <c r="H450" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13149,28 +13173,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="B452" t="s" s="3">
+      <c r="B452" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C452" t="s" s="3">
+      <c r="C452" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D452" t="s" s="3">
+      <c r="D452" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E452" t="s" s="3">
+      <c r="E452" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F452" t="s" s="3">
+      <c r="F452" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G452" t="s" s="3">
+      <c r="G452" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H452" t="s" s="3">
+      <c r="H452" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I452" t="s" s="3">
+      <c r="I452" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13229,10 +13253,10 @@
       <c r="I454">
         <f>((C454-C453)^2+(D454- D453)^2)^.5</f>
       </c>
-      <c r="J454" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K454" s="3" t="s">
+      <c r="J454" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K454" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L454" t="n">
@@ -13276,28 +13300,28 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="s" s="3">
+      <c r="A456" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B456" t="s" s="3">
+      <c r="B456" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C456" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D456" t="s" s="3">
+      <c r="C456" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D456" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E456" t="s" s="3">
+      <c r="E456" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F456" t="s" s="3">
+      <c r="F456" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G456" t="s" s="3">
+      <c r="G456" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H456" t="s" s="3">
+      <c r="H456" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13322,28 +13346,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="B458" t="s" s="3">
+      <c r="B458" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C458" t="s" s="3">
+      <c r="C458" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D458" t="s" s="3">
+      <c r="D458" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E458" t="s" s="3">
+      <c r="E458" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F458" t="s" s="3">
+      <c r="F458" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G458" t="s" s="3">
+      <c r="G458" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H458" t="s" s="3">
+      <c r="H458" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I458" t="s" s="3">
+      <c r="I458" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13402,10 +13426,10 @@
       <c r="I460">
         <f>((C460-C459)^2+(D460- D459)^2)^.5</f>
       </c>
-      <c r="J460" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K460" s="3" t="s">
+      <c r="J460" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K460" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L460" t="n">
@@ -13449,28 +13473,28 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="s" s="3">
+      <c r="A462" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B462" t="s" s="3">
+      <c r="B462" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C462" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D462" t="s" s="3">
+      <c r="C462" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D462" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E462" t="s" s="3">
+      <c r="E462" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F462" t="s" s="3">
+      <c r="F462" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G462" t="s" s="3">
+      <c r="G462" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H462" t="s" s="3">
+      <c r="H462" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13495,28 +13519,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="B464" t="s" s="3">
+      <c r="B464" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C464" t="s" s="3">
+      <c r="C464" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D464" t="s" s="3">
+      <c r="D464" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E464" t="s" s="3">
+      <c r="E464" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F464" t="s" s="3">
+      <c r="F464" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G464" t="s" s="3">
+      <c r="G464" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H464" t="s" s="3">
+      <c r="H464" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I464" t="s" s="3">
+      <c r="I464" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13604,10 +13628,10 @@
       <c r="I467">
         <f>((C467-C466)^2+(D467- D466)^2)^.5</f>
       </c>
-      <c r="J467" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K467" s="3" t="s">
+      <c r="J467" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K467" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L467" t="n">
@@ -13651,28 +13675,28 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="s" s="3">
+      <c r="A469" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B469" t="s" s="3">
+      <c r="B469" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C469" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D469" t="s" s="3">
+      <c r="C469" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D469" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E469" t="s" s="3">
+      <c r="E469" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F469" t="s" s="3">
+      <c r="F469" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G469" t="s" s="3">
+      <c r="G469" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H469" t="s" s="3">
+      <c r="H469" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13697,28 +13721,28 @@
       </c>
     </row>
     <row r="471">
-      <c r="B471" t="s" s="3">
+      <c r="B471" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C471" t="s" s="3">
+      <c r="C471" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D471" t="s" s="3">
+      <c r="D471" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E471" t="s" s="3">
+      <c r="E471" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F471" t="s" s="3">
+      <c r="F471" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G471" t="s" s="3">
+      <c r="G471" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H471" t="s" s="3">
+      <c r="H471" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I471" t="s" s="3">
+      <c r="I471" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13777,10 +13801,10 @@
       <c r="I473">
         <f>((C473-C472)^2+(D473- D472)^2)^.5</f>
       </c>
-      <c r="J473" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K473" s="3" t="s">
+      <c r="J473" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K473" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L473" t="n">
@@ -13824,28 +13848,28 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="s" s="3">
+      <c r="A475" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B475" t="s" s="3">
+      <c r="B475" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C475" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D475" t="s" s="3">
+      <c r="C475" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D475" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E475" t="s" s="3">
+      <c r="E475" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F475" t="s" s="3">
+      <c r="F475" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G475" t="s" s="3">
+      <c r="G475" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H475" t="s" s="3">
+      <c r="H475" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13870,28 +13894,28 @@
       </c>
     </row>
     <row r="477">
-      <c r="B477" t="s" s="3">
+      <c r="B477" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C477" t="s" s="3">
+      <c r="C477" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D477" t="s" s="3">
+      <c r="D477" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E477" t="s" s="3">
+      <c r="E477" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F477" t="s" s="3">
+      <c r="F477" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G477" t="s" s="3">
+      <c r="G477" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H477" t="s" s="3">
+      <c r="H477" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I477" t="s" s="3">
+      <c r="I477" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13950,10 +13974,10 @@
       <c r="I479">
         <f>((C479-C478)^2+(D479- D478)^2)^.5</f>
       </c>
-      <c r="J479" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K479" s="3" t="s">
+      <c r="J479" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K479" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L479" t="n">
@@ -13997,28 +14021,28 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="s" s="3">
+      <c r="A481" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B481" t="s" s="3">
+      <c r="B481" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C481" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D481" t="s" s="3">
+      <c r="C481" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D481" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E481" t="s" s="3">
+      <c r="E481" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F481" t="s" s="3">
+      <c r="F481" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G481" t="s" s="3">
+      <c r="G481" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H481" t="s" s="3">
+      <c r="H481" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -14043,28 +14067,28 @@
       </c>
     </row>
     <row r="483">
-      <c r="B483" t="s" s="3">
+      <c r="B483" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C483" t="s" s="3">
+      <c r="C483" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D483" t="s" s="3">
+      <c r="D483" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E483" t="s" s="3">
+      <c r="E483" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F483" t="s" s="3">
+      <c r="F483" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G483" t="s" s="3">
+      <c r="G483" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H483" t="s" s="3">
+      <c r="H483" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I483" t="s" s="3">
+      <c r="I483" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -14123,10 +14147,10 @@
       <c r="I485">
         <f>((C485-C484)^2+(D485- D484)^2)^.5</f>
       </c>
-      <c r="J485" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K485" s="3" t="s">
+      <c r="J485" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K485" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L485" t="n">
@@ -14170,28 +14194,28 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="s" s="3">
+      <c r="A487" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B487" t="s" s="3">
+      <c r="B487" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C487" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D487" t="s" s="3">
+      <c r="C487" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D487" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E487" t="s" s="3">
+      <c r="E487" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F487" t="s" s="3">
+      <c r="F487" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G487" t="s" s="3">
+      <c r="G487" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H487" t="s" s="3">
+      <c r="H487" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -14216,28 +14240,28 @@
       </c>
     </row>
     <row r="489">
-      <c r="B489" t="s" s="3">
+      <c r="B489" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C489" t="s" s="3">
+      <c r="C489" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D489" t="s" s="3">
+      <c r="D489" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E489" t="s" s="3">
+      <c r="E489" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F489" t="s" s="3">
+      <c r="F489" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G489" t="s" s="3">
+      <c r="G489" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H489" t="s" s="3">
+      <c r="H489" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I489" t="s" s="3">
+      <c r="I489" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -14296,10 +14320,10 @@
       <c r="I491">
         <f>((C491-C490)^2+(D491- D490)^2)^.5</f>
       </c>
-      <c r="J491" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K491" s="3" t="s">
+      <c r="J491" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K491" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L491" t="n">
@@ -14343,28 +14367,28 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="s" s="3">
+      <c r="A493" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B493" t="s" s="3">
+      <c r="B493" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C493" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D493" t="s" s="3">
+      <c r="C493" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D493" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E493" t="s" s="3">
+      <c r="E493" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F493" t="s" s="3">
+      <c r="F493" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G493" t="s" s="3">
+      <c r="G493" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H493" t="s" s="3">
+      <c r="H493" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -14389,28 +14413,28 @@
       </c>
     </row>
     <row r="495">
-      <c r="B495" t="s" s="3">
+      <c r="B495" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C495" t="s" s="3">
+      <c r="C495" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D495" t="s" s="3">
+      <c r="D495" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E495" t="s" s="3">
+      <c r="E495" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F495" t="s" s="3">
+      <c r="F495" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G495" t="s" s="3">
+      <c r="G495" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H495" t="s" s="3">
+      <c r="H495" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I495" t="s" s="3">
+      <c r="I495" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -14469,10 +14493,10 @@
       <c r="I497">
         <f>((C497-C496)^2+(D497- D496)^2)^.5</f>
       </c>
-      <c r="J497" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K497" s="3" t="s">
+      <c r="J497" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K497" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L497" t="n">
@@ -14516,28 +14540,28 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="s" s="3">
+      <c r="A499" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B499" t="s" s="3">
+      <c r="B499" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C499" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D499" t="s" s="3">
+      <c r="C499" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D499" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E499" t="s" s="3">
+      <c r="E499" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F499" t="s" s="3">
+      <c r="F499" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G499" t="s" s="3">
+      <c r="G499" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H499" t="s" s="3">
+      <c r="H499" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -14562,28 +14586,28 @@
       </c>
     </row>
     <row r="501">
-      <c r="B501" t="s" s="3">
+      <c r="B501" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C501" t="s" s="3">
+      <c r="C501" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D501" t="s" s="3">
+      <c r="D501" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E501" t="s" s="3">
+      <c r="E501" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F501" t="s" s="3">
+      <c r="F501" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G501" t="s" s="3">
+      <c r="G501" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H501" t="s" s="3">
+      <c r="H501" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I501" t="s" s="3">
+      <c r="I501" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -14642,10 +14666,10 @@
       <c r="I503">
         <f>((C503-C502)^2+(D503- D502)^2)^.5</f>
       </c>
-      <c r="J503" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K503" s="3" t="s">
+      <c r="J503" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K503" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L503" t="n">
@@ -14689,28 +14713,28 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="s" s="3">
+      <c r="A505" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B505" t="s" s="3">
+      <c r="B505" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C505" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D505" t="s" s="3">
+      <c r="C505" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D505" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E505" t="s" s="3">
+      <c r="E505" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F505" t="s" s="3">
+      <c r="F505" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G505" t="s" s="3">
+      <c r="G505" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H505" t="s" s="3">
+      <c r="H505" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -14735,28 +14759,28 @@
       </c>
     </row>
     <row r="507">
-      <c r="B507" t="s" s="3">
+      <c r="B507" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C507" t="s" s="3">
+      <c r="C507" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D507" t="s" s="3">
+      <c r="D507" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E507" t="s" s="3">
+      <c r="E507" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F507" t="s" s="3">
+      <c r="F507" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G507" t="s" s="3">
+      <c r="G507" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H507" t="s" s="3">
+      <c r="H507" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I507" t="s" s="3">
+      <c r="I507" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -14815,10 +14839,10 @@
       <c r="I509">
         <f>((C509-C508)^2+(D509- D508)^2)^.5</f>
       </c>
-      <c r="J509" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K509" s="3" t="s">
+      <c r="J509" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K509" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L509" t="n">
@@ -14862,28 +14886,28 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="s" s="3">
+      <c r="A511" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B511" t="s" s="3">
+      <c r="B511" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C511" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D511" t="s" s="3">
+      <c r="C511" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D511" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E511" t="s" s="3">
+      <c r="E511" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F511" t="s" s="3">
+      <c r="F511" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G511" t="s" s="3">
+      <c r="G511" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H511" t="s" s="3">
+      <c r="H511" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -14908,28 +14932,28 @@
       </c>
     </row>
     <row r="513">
-      <c r="B513" t="s" s="3">
+      <c r="B513" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C513" t="s" s="3">
+      <c r="C513" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D513" t="s" s="3">
+      <c r="D513" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E513" t="s" s="3">
+      <c r="E513" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F513" t="s" s="3">
+      <c r="F513" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G513" t="s" s="3">
+      <c r="G513" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H513" t="s" s="3">
+      <c r="H513" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I513" t="s" s="3">
+      <c r="I513" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -14988,10 +15012,10 @@
       <c r="I515">
         <f>((C515-C514)^2+(D515- D514)^2)^.5</f>
       </c>
-      <c r="J515" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K515" s="3" t="s">
+      <c r="J515" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K515" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L515" t="n">
@@ -15035,28 +15059,28 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="s" s="3">
+      <c r="A517" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B517" t="s" s="3">
+      <c r="B517" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C517" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D517" t="s" s="3">
+      <c r="C517" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D517" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E517" t="s" s="3">
+      <c r="E517" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F517" t="s" s="3">
+      <c r="F517" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G517" t="s" s="3">
+      <c r="G517" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H517" t="s" s="3">
+      <c r="H517" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -15081,28 +15105,28 @@
       </c>
     </row>
     <row r="519">
-      <c r="B519" t="s" s="3">
+      <c r="B519" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C519" t="s" s="3">
+      <c r="C519" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D519" t="s" s="3">
+      <c r="D519" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E519" t="s" s="3">
+      <c r="E519" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F519" t="s" s="3">
+      <c r="F519" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G519" t="s" s="3">
+      <c r="G519" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H519" t="s" s="3">
+      <c r="H519" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I519" t="s" s="3">
+      <c r="I519" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -15161,10 +15185,10 @@
       <c r="I521">
         <f>((C521-C520)^2+(D521- D520)^2)^.5</f>
       </c>
-      <c r="J521" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K521" s="3" t="s">
+      <c r="J521" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K521" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L521" t="n">
